--- a/biology/Zoologie/Conus_kintoki/Conus_kintoki.xlsx
+++ b/biology/Zoologie/Conus_kintoki/Conus_kintoki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus kintoki est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 45 mm et 116 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large des Philippines et dans la mer de Chine méridionale.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve aux Philippines, au Viet Nam, le long de la côte sud de la Chine, et à Sabah. Elle est commune dans toute son aire de répartition. Il n'y a pas de menaces majeures connues, elle est donc classée dans la catégorie préoccupation mineure[1].
 </t>
         </is>
       </c>
@@ -573,15 +587,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve aux Philippines, au Viet Nam, le long de la côte sud de la Chine, et à Sabah. Elle est commune dans toute son aire de répartition. Il n'y a pas de menaces majeures connues, elle est donc classée dans la catégorie préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_kintoki</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_kintoki</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus kintoki a été décrite pour la première fois en 1970 par les malacologistes japonais Tadashige Habe[2] et Sadao Kosuge[3] dans la publication intitulée « Pacific Shell News »[4],[5].
-Synonymes
-Conus (Virgiconus) kintoki Habe &amp; Kosuge, 1970 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus kintoki a été décrite pour la première fois en 1970 par les malacologistes japonais Tadashige Habe et Sadao Kosuge dans la publication intitulée « Pacific Shell News »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_kintoki</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_kintoki</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Virgiconus) kintoki Habe &amp; Kosuge, 1970 · appellation alternative
 Conus kintoki Coomans &amp; Moolenbeek, 1982 · non accepté
 Virgiconus kintoki (Habe &amp; Kosuge, 1970) · non accepté</t>
         </is>
